--- a/Data-Nike/IPI_nike.xlsx
+++ b/Data-Nike/IPI_nike.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\Documents\AMAT\NIke urejeni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\Documents\AMAT\Analiza-podjetij\Data-Nike\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,90 +24,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
-  <si>
-    <t xml:space="preserve"> ∟ Operating revenue (Turnover)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Costs of goods sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Gross profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other operating expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Operating P/L [=EBIT]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Financial P/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Financial revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Financial expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ P/L before tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Taxation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ P/L after tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Extr. and other P/L</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t xml:space="preserve"> ∟ Extr. and other revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Extr. and other expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ P/L for period [=Net income]</t>
-  </si>
-  <si>
-    <t>Memo lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Export revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Material costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Costs of employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Depreciation &amp; Amortization</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other operating items</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Interest paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Research &amp; Development expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Cash flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Added value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ EBITDA</t>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Costs of goods sold</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>Other operating expenses</t>
+  </si>
+  <si>
+    <t>Operating P/L [=EBIT]</t>
+  </si>
+  <si>
+    <t>Financial revenue</t>
+  </si>
+  <si>
+    <t>Financial expenses</t>
+  </si>
+  <si>
+    <t>P/L before tax</t>
+  </si>
+  <si>
+    <t>Taxation</t>
+  </si>
+  <si>
+    <t>P/L after tax</t>
+  </si>
+  <si>
+    <t>Extr. and other P/L</t>
+  </si>
+  <si>
+    <t>P/L for period [=Net income]</t>
+  </si>
+  <si>
+    <t>Cash flow</t>
+  </si>
+  <si>
+    <t>Added value</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
   </si>
 </sst>
 </file>
@@ -178,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -192,9 +156,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,9 +463,9 @@
         <v>42521</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>39117000</v>
@@ -519,185 +480,185 @@
         <v>32376000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>39117000</v>
+        <v>20923000</v>
       </c>
       <c r="C3" s="4">
-        <v>36397000</v>
+        <v>19667000</v>
       </c>
       <c r="D3" s="4">
-        <v>34350000</v>
+        <v>18322000</v>
       </c>
       <c r="E3" s="4">
-        <v>32376000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>16743000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>20923000</v>
+        <v>18194000</v>
       </c>
       <c r="C4" s="4">
-        <v>19667000</v>
+        <v>16730000</v>
       </c>
       <c r="D4" s="4">
-        <v>18322000</v>
+        <v>16028000</v>
       </c>
       <c r="E4" s="4">
-        <v>16743000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>15633000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>18194000</v>
+        <v>13422000</v>
       </c>
       <c r="C5" s="4">
-        <v>16730000</v>
+        <v>12285000</v>
       </c>
       <c r="D5" s="4">
-        <v>16028000</v>
+        <v>11279000</v>
       </c>
       <c r="E5" s="4">
-        <v>15633000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>11131000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>13422000</v>
+        <v>4772000</v>
       </c>
       <c r="C6" s="4">
-        <v>12285000</v>
+        <v>4445000</v>
       </c>
       <c r="D6" s="4">
-        <v>11279000</v>
+        <v>4749000</v>
       </c>
       <c r="E6" s="4">
-        <v>11131000</v>
+        <v>4502000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>4772000</v>
+        <v>82000</v>
       </c>
       <c r="C7" s="4">
-        <v>4445000</v>
+        <v>70000</v>
       </c>
       <c r="D7" s="4">
-        <v>4749000</v>
+        <v>27000</v>
       </c>
       <c r="E7" s="4">
-        <v>4502000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>29000</v>
+        <v>53000</v>
       </c>
       <c r="C8" s="4">
-        <v>-120000</v>
+        <v>190000</v>
       </c>
       <c r="D8" s="4">
-        <v>137000</v>
+        <v>-110000</v>
       </c>
       <c r="E8" s="4">
-        <v>121000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>-109000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>82000</v>
+        <v>4801000</v>
       </c>
       <c r="C9" s="4">
-        <v>70000</v>
+        <v>4325000</v>
       </c>
       <c r="D9" s="4">
-        <v>27000</v>
+        <v>4886000</v>
       </c>
       <c r="E9" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>4623000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>53000</v>
+        <v>772000</v>
       </c>
       <c r="C10" s="4">
-        <v>190000</v>
+        <v>359000</v>
       </c>
       <c r="D10" s="4">
-        <v>-110000</v>
+        <v>646000</v>
       </c>
       <c r="E10" s="4">
-        <v>-109000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>863000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>4801000</v>
+        <v>4029000</v>
       </c>
       <c r="C11" s="4">
-        <v>4325000</v>
+        <v>3966000</v>
       </c>
       <c r="D11" s="4">
-        <v>4886000</v>
+        <v>4240000</v>
       </c>
       <c r="E11" s="4">
-        <v>4623000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3760000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>772000</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C12" s="4">
-        <v>359000</v>
-      </c>
-      <c r="D12" s="4">
-        <v>646000</v>
-      </c>
-      <c r="E12" s="4">
-        <v>863000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>-2033000</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>4029000</v>
       </c>
       <c r="C13" s="4">
-        <v>3966000</v>
+        <v>1933000</v>
       </c>
       <c r="D13" s="4">
         <v>4240000</v>
@@ -706,250 +667,54 @@
         <v>3760000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="4">
+        <v>4749000</v>
+      </c>
       <c r="C14" s="4">
-        <v>-2033000</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>2707000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4956000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4422000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3408000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5899000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5554000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>4029000</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1933000</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4240000</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3760000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4">
-        <v>218000</v>
-      </c>
-      <c r="D21" s="4">
-        <v>215000</v>
-      </c>
-      <c r="E21" s="4">
-        <v>236000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>720000</v>
-      </c>
-      <c r="C22" s="4">
-        <v>774000</v>
-      </c>
-      <c r="D22" s="4">
-        <v>716000</v>
-      </c>
-      <c r="E22" s="4">
-        <v>662000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>12702000</v>
-      </c>
-      <c r="C23" s="4">
-        <v>11293000</v>
-      </c>
-      <c r="D23" s="4">
-        <v>10348000</v>
-      </c>
-      <c r="E23" s="4">
-        <v>10233000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>131000</v>
-      </c>
-      <c r="C24" s="4">
-        <v>124000</v>
-      </c>
-      <c r="D24" s="4">
-        <v>82000</v>
-      </c>
-      <c r="E24" s="4">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>4749000</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2707000</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4956000</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4422000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4">
-        <v>3408000</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5899000</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5554000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4">
+      <c r="B16" s="4">
         <v>5492000</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C16" s="4">
         <v>5219000</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D16" s="4">
         <v>5465000</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E16" s="4">
         <v>5164000</v>
       </c>
     </row>

--- a/Data-Nike/IPI_nike.xlsx
+++ b/Data-Nike/IPI_nike.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>n.a.</t>
   </si>
@@ -63,15 +63,6 @@
   </si>
   <si>
     <t>P/L for period [=Net income]</t>
-  </si>
-  <si>
-    <t>Cash flow</t>
-  </si>
-  <si>
-    <t>Added value</t>
-  </si>
-  <si>
-    <t>EBITDA</t>
   </si>
 </sst>
 </file>
@@ -437,18 +428,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>43616</v>
@@ -462,8 +454,11 @@
       <c r="E1" s="2">
         <v>42521</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -479,8 +474,11 @@
       <c r="E2" s="4">
         <v>32376000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4">
+        <v>30601000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -496,8 +494,11 @@
       <c r="E3" s="4">
         <v>16743000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4">
+        <v>15885000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -513,8 +514,11 @@
       <c r="E4" s="4">
         <v>15633000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <v>14716000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -530,8 +534,11 @@
       <c r="E5" s="4">
         <v>11131000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>10541000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -547,8 +554,11 @@
       <c r="E6" s="4">
         <v>4502000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>4175000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -564,8 +574,11 @@
       <c r="E7" s="4">
         <v>12000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -581,8 +594,11 @@
       <c r="E8" s="4">
         <v>-109000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -598,8 +614,11 @@
       <c r="E9" s="4">
         <v>4623000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>4205000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -615,8 +634,11 @@
       <c r="E10" s="4">
         <v>863000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>932000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -632,8 +654,11 @@
       <c r="E11" s="4">
         <v>3760000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>3273000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -649,8 +674,11 @@
       <c r="E12" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -666,56 +694,8 @@
       <c r="E13" s="4">
         <v>3760000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>4749000</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2707000</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4956000</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4422000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3408000</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5899000</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5554000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>5492000</v>
-      </c>
-      <c r="C16" s="4">
-        <v>5219000</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5465000</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5164000</v>
+      <c r="F13" s="4">
+        <v>3273000</v>
       </c>
     </row>
   </sheetData>

--- a/Data-Nike/IPI_nike.xlsx
+++ b/Data-Nike/IPI_nike.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\Documents\AMAT\Analiza-podjetij\Data-Nike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristina\Desktop\Študijsko leto 2020-21\TFPR\Analiza-podjetij\Data-Nike\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,7 +82,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="###,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,11 @@
       <sz val="10"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -139,10 +144,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -157,9 +163,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,18 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>43616</v>
@@ -462,8 +476,11 @@
       <c r="E1" s="2">
         <v>42521</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="6">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -479,8 +496,11 @@
       <c r="E2" s="4">
         <v>32376000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F2" s="7">
+        <v>30601000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -496,8 +516,11 @@
       <c r="E3" s="4">
         <v>16743000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
+        <v>15885000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -513,8 +536,11 @@
       <c r="E4" s="4">
         <v>15633000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F4" s="7">
+        <v>14716000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -530,8 +556,11 @@
       <c r="E5" s="4">
         <v>11131000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F5" s="7">
+        <v>10541000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -547,8 +576,11 @@
       <c r="E6" s="4">
         <v>4502000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="7">
+        <v>4175000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -564,8 +596,11 @@
       <c r="E7" s="4">
         <v>12000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F7" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -581,8 +616,11 @@
       <c r="E8" s="4">
         <v>-109000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="7">
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -598,8 +636,11 @@
       <c r="E9" s="4">
         <v>4623000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="7">
+        <v>4205000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -615,8 +656,11 @@
       <c r="E10" s="4">
         <v>863000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="7">
+        <v>932000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -632,8 +676,11 @@
       <c r="E11" s="4">
         <v>3760000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F11" s="7">
+        <v>3273000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -649,8 +696,11 @@
       <c r="E12" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -666,8 +716,11 @@
       <c r="E13" s="4">
         <v>3760000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="7">
+        <v>3273000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -683,8 +736,11 @@
       <c r="E14" s="4">
         <v>4422000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="7">
+        <v>3922000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -700,8 +756,11 @@
       <c r="E15" s="4">
         <v>5554000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="7">
+        <v>5079000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -716,6 +775,9 @@
       </c>
       <c r="E16" s="4">
         <v>5164000</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4824000</v>
       </c>
     </row>
   </sheetData>
